--- a/data/trans_dic/P19F$noche-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7315753239684952</v>
+        <v>0.7327475014026743</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8077715835604419</v>
+        <v>0.8116321007020654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7851814053211773</v>
+        <v>0.7829250436707865</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8469284736063195</v>
+        <v>0.8385689165467731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.905769194791394</v>
+        <v>0.9111521587113575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.858969735695014</v>
+        <v>0.859682467179804</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7416825854275498</v>
+        <v>0.7343256930374915</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7156140817342747</v>
+        <v>0.7142991130718199</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7403801744161134</v>
+        <v>0.7457089128491412</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8305814039383765</v>
+        <v>0.8270555903596546</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.815188222746118</v>
+        <v>0.8132082356222539</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8090690505859025</v>
+        <v>0.8092006292313083</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7437119337859208</v>
+        <v>0.7446482490532366</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7744080777582429</v>
+        <v>0.7770509168500312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7689412238945166</v>
+        <v>0.7700757033362111</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8336236919136858</v>
+        <v>0.8305020834166918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8544126643186416</v>
+        <v>0.8586107307478017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8326696764113241</v>
+        <v>0.8333492321722682</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.692578859947394</v>
+        <v>0.6924780868957838</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7593932376311362</v>
+        <v>0.7622113882405641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7413117890177484</v>
+        <v>0.7414742299424979</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7922780912362594</v>
+        <v>0.7954474413722087</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8467798677688578</v>
+        <v>0.8465455299895579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8082483459582095</v>
+        <v>0.8102845070592354</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6850327638265781</v>
+        <v>0.6816102967211493</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7064798982340016</v>
+        <v>0.7127294438977269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7126006445045828</v>
+        <v>0.7139621369128859</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8035172416865529</v>
+        <v>0.8001288922123175</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8221880693911103</v>
+        <v>0.8253262377116054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7949477241834613</v>
+        <v>0.7948804136505108</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7767647038462431</v>
+        <v>0.7802877619329744</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.756478755677637</v>
+        <v>0.760764298687154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7865134334612154</v>
+        <v>0.785800462492762</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8975415323915699</v>
+        <v>0.8931617482485085</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8675078894719819</v>
+        <v>0.8695112488269235</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8645313136755853</v>
+        <v>0.8659618570539342</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6696694846919578</v>
+        <v>0.6671294329238769</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.756469281644163</v>
+        <v>0.7583155619421365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7460499802542107</v>
+        <v>0.743342643301369</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8081160744181398</v>
+        <v>0.8117067628776985</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8890962085271482</v>
+        <v>0.8899675365296076</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8428095270218234</v>
+        <v>0.8392421989515654</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>167584</v>
+        <v>167853</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>144000</v>
+        <v>144688</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>319837</v>
+        <v>318917</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>194008</v>
+        <v>192093</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>161470</v>
+        <v>162429</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>349894</v>
+        <v>350184</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>243445</v>
+        <v>241031</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>194500</v>
+        <v>194142</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>444249</v>
+        <v>447446</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>272625</v>
+        <v>271468</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>221563</v>
+        <v>221025</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>485464</v>
+        <v>485543</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>258501</v>
+        <v>258826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>252371</v>
+        <v>253232</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>517859</v>
+        <v>518623</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>289753</v>
+        <v>288668</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>278444</v>
+        <v>279812</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>560778</v>
+        <v>561236</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>235139</v>
+        <v>235105</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>251382</v>
+        <v>252315</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>497081</v>
+        <v>497190</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>268988</v>
+        <v>270064</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>280310</v>
+        <v>280232</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>541964</v>
+        <v>543330</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>161212</v>
+        <v>160406</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>185674</v>
+        <v>187317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>354982</v>
+        <v>355660</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>189095</v>
+        <v>188298</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>216084</v>
+        <v>216909</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>396003</v>
+        <v>395970</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>134843</v>
+        <v>135455</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>139800</v>
+        <v>140592</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>281886</v>
+        <v>281631</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>155810</v>
+        <v>155049</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>160319</v>
+        <v>160689</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>309848</v>
+        <v>310361</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>84016</v>
+        <v>83697</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>142169</v>
+        <v>142516</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>233810</v>
+        <v>232961</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>101385</v>
+        <v>101836</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>167095</v>
+        <v>167259</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>264134</v>
+        <v>263016</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
     </row>
     <row r="36">
